--- a/data/Importações-dos-produtos-de-origem-florestal.xlsx
+++ b/data/Importações-dos-produtos-de-origem-florestal.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">Madeira serrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenhas (inclui pellets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folhas p/ folheados, painéis, madeira contraplacada, folheada e densificada</t>
+    <t xml:space="preserve">Lenhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeira contraplacada</t>
   </si>
   <si>
     <t xml:space="preserve">Mobiliário de madeira</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Construções à base de madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasta de papel e papel para reciclar</t>
+    <t xml:space="preserve">Pasta de papel</t>
   </si>
   <si>
     <t xml:space="preserve">Papel e cartão</t>
@@ -169,8 +169,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,16 +202,16 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -245,412 +249,412 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1835277.6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>177151.9</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>84879.2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>42451.9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>54748.5</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1454.9</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>147293.5</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>140360.6</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>2225.5</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>65215.6</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>922176.9</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>21205.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2023534.2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>177803.4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>83603.1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>79854.9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>64283.4</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>1624.2</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>173899.7</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>165397.7</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2274.9</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>67275.5</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>958145.5</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>26095.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2161573.5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>138304.9</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>99094.7</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>110737.4</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>73640.6</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>4370.4</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>176299</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>190235.2</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>4002.3</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>74479.9</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>993116</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>33343.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>2210673</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>145622</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>107156.2</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>57531.3</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>76977.6</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2693</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>200649.3</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>209031.7</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>6228.8</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>80652.6</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>990503.7</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>39772.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2347909.2</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>131620.6</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>118994.9</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>62259</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>79998.1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>1772.7</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>246582.9</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>227889.8</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>7086.6</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>99579.2</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>1046272.1</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>30350.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>2583061.5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>125127.4</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>183669.6</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>62169.5</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>85523.8</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>895.1</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>286735.1</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>244419.8</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>4651.7</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>129428.8</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>1108529.3</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>34871.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>2636708.9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>148004.2</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>157214</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>53554.3</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>92168</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>847.6</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>263159.3</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>276567.8</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>4330</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>102678.7</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>1116846.7</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>43290.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>2310852.7</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>169973.4</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>127491.7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>48841.6</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>82001.4</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2806.7</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>243579.8</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>264870.6</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>7405.8</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>72597.5</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>982775.1</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>44549.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>2909462.6</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>215599.6</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>151974.1</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>62095</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>96536.1</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>708.3</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>323797</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>317787.4</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>8408.8</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>98213.3</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>1206541.8</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>45123.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>3806304.8</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>327659.1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>197935.1</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>93218.9</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>110012.9</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>1373.5</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>388311.8</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>338260.4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>7618</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>125592.8</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>1609175.3</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>57691.5</v>
       </c>
     </row>
